--- a/data/trans_orig/P1419-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{314E695E-CCE6-4DD2-BF55-95EAE4268962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF65536A-8214-4D38-BBCA-095CF97DA86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DFDFFE4-7159-4627-B40B-36CD100EFBB6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{103E688D-F317-44D8-A58F-537184A45B77}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="455">
   <si>
     <t>Población con diagnóstico de varices en las piernas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>96,23%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>89,16%</t>
   </si>
   <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,55 +167,55 @@
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -230,1126 +230,1102 @@
     <t>2,88%</t>
   </si>
   <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>98,1%</t>
   </si>
   <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>90,61%</t>
   </si>
   <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>92,04%</t>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>2,96%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>8,82%</t>
+    <t>8,7%</t>
   </si>
   <si>
     <t>95,63%</t>
   </si>
   <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>97,04%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>91,18%</t>
+    <t>91,3%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>5,8%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>8,55%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>94,2%</t>
   </si>
   <si>
     <t>89,68%</t>
@@ -1358,64 +1334,76 @@
     <t>87,91%</t>
   </si>
   <si>
-    <t>91,15%</t>
+    <t>91,1%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,82%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,19%</t>
+    <t>0,04%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
     <t>10,45%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>96,17%</t>
   </si>
   <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
     <t>88,73%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBADDD0-2F5B-4347-9364-58B49CFCBEB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC312F31-A58B-414C-BE2A-332BEFC44546}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3047,13 +3035,13 @@
         <v>364338</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>451</v>
@@ -3062,13 +3050,13 @@
         <v>463416</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3071,13 @@
         <v>3177465</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>2943</v>
@@ -3098,28 +3086,28 @@
         <v>3014860</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>6060</v>
       </c>
       <c r="N26" s="7">
-        <v>6192324</v>
+        <v>6192325</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,7 +3149,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -3175,7 +3163,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3196,7 +3184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A2CFA0-79F6-4268-8F94-0DF6A4B546C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CD9DEA-E342-4490-8DC4-988859D91F3F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3213,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3326,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3341,7 +3329,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3356,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3359,13 @@
         <v>857</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -3386,13 +3374,13 @@
         <v>15680</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -3404,10 +3392,10 @@
         <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3410,13 @@
         <v>114908</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H6" s="7">
         <v>85</v>
@@ -3437,13 +3425,13 @@
         <v>96225</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="M6" s="7">
         <v>206</v>
@@ -3455,10 +3443,10 @@
         <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,7 +3520,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3547,7 +3535,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3580,10 +3568,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -3592,13 +3580,13 @@
         <v>45408</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M9" s="7">
         <v>51</v>
@@ -3607,13 +3595,13 @@
         <v>56060</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3616,13 @@
         <v>577052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>509</v>
@@ -3643,13 +3631,13 @@
         <v>539737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>1052</v>
@@ -3658,13 +3646,13 @@
         <v>1116789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,7 +3726,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3753,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3783,13 +3771,13 @@
         <v>11115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -3798,13 +3786,13 @@
         <v>93756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -3813,13 +3801,13 @@
         <v>104871</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3822,13 @@
         <v>1006832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>852</v>
@@ -3849,13 +3837,13 @@
         <v>935217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1778</v>
@@ -3864,13 +3852,13 @@
         <v>1942049</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,7 +3947,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3989,13 +3977,13 @@
         <v>8064</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -4004,13 +3992,13 @@
         <v>60967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -4019,13 +4007,13 @@
         <v>69030</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4028,13 @@
         <v>749559</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H18" s="7">
         <v>649</v>
@@ -4055,13 +4043,13 @@
         <v>716207</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M18" s="7">
         <v>1331</v>
@@ -4070,13 +4058,13 @@
         <v>1465767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4183,13 @@
         <v>10100</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="H21" s="7">
         <v>80</v>
@@ -4210,13 +4198,13 @@
         <v>83874</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M21" s="7">
         <v>89</v>
@@ -4225,13 +4213,13 @@
         <v>93974</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4234,13 @@
         <v>937639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H22" s="7">
         <v>923</v>
@@ -4261,13 +4249,13 @@
         <v>968027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>1824</v>
@@ -4276,13 +4264,13 @@
         <v>1905666</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4389,13 @@
         <v>40788</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>278</v>
@@ -4416,13 +4404,13 @@
         <v>299684</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M25" s="7">
         <v>314</v>
@@ -4434,10 +4422,10 @@
         <v>47</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4440,13 @@
         <v>3385991</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H26" s="7">
         <v>3018</v>
@@ -4467,28 +4455,28 @@
         <v>3255414</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M26" s="7">
         <v>6191</v>
       </c>
       <c r="N26" s="7">
-        <v>6641405</v>
+        <v>6641406</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>56</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,7 +4518,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4544,7 +4532,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4565,7 +4553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5923C94-5A60-4408-8E97-93F3312274E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B025CC4-6E72-4E64-8028-1B468F32DB5E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4582,7 +4570,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4695,7 +4683,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4710,7 +4698,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4725,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4728,13 @@
         <v>3281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4755,13 +4743,13 @@
         <v>4002</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4770,13 +4758,13 @@
         <v>7283</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4779,13 @@
         <v>113265</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -4806,13 +4794,13 @@
         <v>109358</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>221</v>
@@ -4821,13 +4809,13 @@
         <v>222623</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>268</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,7 +4889,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4916,7 +4904,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4931,7 +4919,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4934,13 @@
         <v>6315</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -4961,13 +4949,13 @@
         <v>26631</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -4976,13 +4964,13 @@
         <v>32946</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4985,13 @@
         <v>551939</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>527</v>
@@ -5012,13 +5000,13 @@
         <v>532848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>1060</v>
@@ -5027,13 +5015,13 @@
         <v>1084787</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,7 +5095,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5122,7 +5110,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5152,13 +5140,13 @@
         <v>8945</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -5170,10 +5158,10 @@
         <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -5182,13 +5170,13 @@
         <v>86162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5191,13 @@
         <v>1013486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>913</v>
@@ -5221,10 +5209,10 @@
         <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>1855</v>
@@ -5233,13 +5221,13 @@
         <v>1979182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,7 +5316,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5343,7 +5331,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5346,13 @@
         <v>11422</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -5373,13 +5361,13 @@
         <v>33801</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -5388,13 +5376,13 @@
         <v>45223</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5397,13 @@
         <v>748130</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="H18" s="7">
         <v>706</v>
@@ -5424,13 +5412,13 @@
         <v>751210</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="M18" s="7">
         <v>1390</v>
@@ -5439,13 +5427,13 @@
         <v>1499340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5564,13 +5552,13 @@
         <v>22378</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H21" s="7">
         <v>65</v>
@@ -5579,13 +5567,13 @@
         <v>76607</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M21" s="7">
         <v>85</v>
@@ -5594,13 +5582,13 @@
         <v>98985</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5603,13 @@
         <v>915189</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>894</v>
@@ -5630,13 +5618,13 @@
         <v>967172</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>1806</v>
@@ -5645,13 +5633,13 @@
         <v>1882361</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5758,13 @@
         <v>52341</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H25" s="7">
         <v>187</v>
@@ -5785,13 +5773,13 @@
         <v>218258</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M25" s="7">
         <v>237</v>
@@ -5800,13 +5788,13 @@
         <v>270599</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5809,13 @@
         <v>3342009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H26" s="7">
         <v>3151</v>
@@ -5836,13 +5824,13 @@
         <v>3326284</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M26" s="7">
         <v>6332</v>
@@ -5851,13 +5839,13 @@
         <v>6668293</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>244</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,7 +5901,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5934,7 +5922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6CA1EF-18A9-4BA6-88CB-CE616CBB1F15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657C36B0-90DF-4186-9FAE-1755B4FEF866}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5951,7 +5939,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6064,7 +6052,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6079,7 +6067,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6094,7 +6082,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,13 +6097,13 @@
         <v>1390</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>359</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>349</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -6124,13 +6112,13 @@
         <v>15957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -6139,13 +6127,13 @@
         <v>17347</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6148,13 @@
         <v>100592</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>366</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>356</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H6" s="7">
         <v>213</v>
@@ -6175,13 +6163,13 @@
         <v>114776</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M6" s="7">
         <v>329</v>
@@ -6190,13 +6178,13 @@
         <v>215368</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,7 +6258,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6279,13 +6267,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>374</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6294,13 +6282,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>378</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>66</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6303,13 @@
         <v>24478</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>309</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="H9" s="7">
         <v>140</v>
@@ -6330,13 +6318,13 @@
         <v>68946</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>171</v>
@@ -6345,13 +6333,13 @@
         <v>93424</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6354,13 @@
         <v>525345</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>855</v>
@@ -6381,13 +6369,13 @@
         <v>523609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>1436</v>
@@ -6396,13 +6384,13 @@
         <v>1048954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,7 +6464,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6485,13 +6473,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6506,7 +6494,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,28 +6509,28 @@
         <v>29342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
       </c>
       <c r="I13" s="7">
-        <v>113589</v>
+        <v>113588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>233</v>
@@ -6551,13 +6539,13 @@
         <v>142930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,28 +6560,28 @@
         <v>1009906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>1320</v>
       </c>
       <c r="I14" s="7">
-        <v>944409</v>
+        <v>944408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>2245</v>
@@ -6602,13 +6590,13 @@
         <v>1954315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,7 +6623,7 @@
         <v>1516</v>
       </c>
       <c r="I15" s="7">
-        <v>1059320</v>
+        <v>1059319</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -6697,7 +6685,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6727,13 +6715,13 @@
         <v>31768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -6742,13 +6730,13 @@
         <v>86090</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -6757,13 +6745,13 @@
         <v>117859</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6766,13 @@
         <v>695156</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>417</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H18" s="7">
         <v>910</v>
@@ -6793,13 +6781,13 @@
         <v>788122</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>1547</v>
@@ -6808,13 +6796,13 @@
         <v>1483276</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6885,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6912,13 +6900,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,13 +6921,13 @@
         <v>42588</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>427</v>
+        <v>289</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H21" s="7">
         <v>181</v>
@@ -6948,13 +6936,13 @@
         <v>115939</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M21" s="7">
         <v>231</v>
@@ -6963,13 +6951,13 @@
         <v>158526</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +6972,13 @@
         <v>922815</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>1379</v>
@@ -6999,13 +6987,13 @@
         <v>1031005</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>2335</v>
@@ -7014,13 +7002,13 @@
         <v>1953820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,10 +7094,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7118,13 +7106,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>446</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,13 +7127,13 @@
         <v>129566</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>440</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>205</v>
+        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>681</v>
@@ -7154,13 +7142,13 @@
         <v>400520</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>840</v>
@@ -7169,13 +7157,13 @@
         <v>530086</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7178,13 @@
         <v>3253814</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>214</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>4677</v>
@@ -7205,13 +7193,13 @@
         <v>3401919</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>7892</v>
@@ -7220,13 +7208,13 @@
         <v>6655733</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,7 +7270,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1419-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF65536A-8214-4D38-BBCA-095CF97DA86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1617AD43-213A-4FB2-A18E-72A865F45903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{103E688D-F317-44D8-A58F-537184A45B77}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43B80679-5B08-40D7-9F52-C9A6D862873E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="460">
   <si>
     <t>Población con diagnóstico de varices en las piernas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -95,1237 +95,1252 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>96,72%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
   </si>
   <si>
     <t>89,68%</t>
@@ -1815,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC312F31-A58B-414C-BE2A-332BEFC44546}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD570B85-7CCF-48AE-A9D7-D5F64273BC11}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2229,10 +2244,10 @@
         <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2262,13 @@
         <v>564327</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>527</v>
@@ -2262,13 +2277,13 @@
         <v>533645</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>1091</v>
@@ -2277,13 +2292,13 @@
         <v>1097972</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,7 +2354,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2357,7 +2372,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2372,7 +2387,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2387,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2417,13 @@
         <v>27735</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -2417,13 +2432,13 @@
         <v>105333</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -2432,13 +2447,13 @@
         <v>133068</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2468,13 @@
         <v>934065</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>812</v>
@@ -2468,13 +2483,13 @@
         <v>863060</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>1683</v>
@@ -2483,13 +2498,13 @@
         <v>1797125</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,7 +2560,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2563,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2578,7 +2593,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2593,7 +2608,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2623,13 @@
         <v>22191</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -2623,13 +2638,13 @@
         <v>78610</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -2638,13 +2653,13 @@
         <v>100801</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2674,13 @@
         <v>656318</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>614</v>
@@ -2674,13 +2689,13 @@
         <v>605231</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>1235</v>
@@ -2689,13 +2704,13 @@
         <v>1261549</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,7 +2766,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2769,7 +2784,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2784,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2799,7 +2814,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2829,13 @@
         <v>30478</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>121</v>
@@ -2829,13 +2844,13 @@
         <v>126223</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>155</v>
@@ -2844,13 +2859,13 @@
         <v>156701</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2880,13 @@
         <v>911744</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>876</v>
@@ -2880,13 +2895,13 @@
         <v>912389</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>1836</v>
@@ -2895,13 +2910,13 @@
         <v>1824133</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2990,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2990,7 +3005,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3005,7 +3020,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3035,13 @@
         <v>99079</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>354</v>
@@ -3035,13 +3050,13 @@
         <v>364338</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>451</v>
@@ -3050,13 +3065,13 @@
         <v>463416</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,16 +3083,16 @@
         <v>3117</v>
       </c>
       <c r="D26" s="7">
-        <v>3177465</v>
+        <v>3177464</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>2943</v>
@@ -3086,7 +3101,7 @@
         <v>3014860</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>136</v>
@@ -3119,7 +3134,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -3184,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CD9DEA-E342-4490-8DC4-988859D91F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4B2C1D-501B-48FE-86CE-DD3D18802F53}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3329,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3344,7 +3359,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3374,13 @@
         <v>857</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -3374,10 +3389,10 @@
         <v>15680</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>149</v>
@@ -3395,7 +3410,7 @@
         <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3425,13 @@
         <v>114908</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H6" s="7">
         <v>85</v>
@@ -3425,13 +3440,13 @@
         <v>96225</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>206</v>
@@ -3443,10 +3458,10 @@
         <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,7 +3535,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3535,7 +3550,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3568,10 +3583,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -3580,13 +3595,13 @@
         <v>45408</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M9" s="7">
         <v>51</v>
@@ -3595,13 +3610,13 @@
         <v>56060</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3631,13 @@
         <v>577052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>509</v>
@@ -3631,13 +3646,13 @@
         <v>539737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>1052</v>
@@ -3646,13 +3661,13 @@
         <v>1116789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,7 +3723,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3756,7 +3771,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3816,13 @@
         <v>104871</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3837,13 @@
         <v>1006832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>852</v>
@@ -3837,13 +3852,13 @@
         <v>935217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>1778</v>
@@ -3852,13 +3867,13 @@
         <v>1942049</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,7 +3929,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3932,7 +3947,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3947,7 +3962,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3962,7 +3977,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3992,13 @@
         <v>8064</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -3992,13 +4007,13 @@
         <v>60967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -4007,13 +4022,13 @@
         <v>69030</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4043,13 @@
         <v>749559</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H18" s="7">
         <v>649</v>
@@ -4043,13 +4058,13 @@
         <v>716207</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M18" s="7">
         <v>1331</v>
@@ -4058,13 +4073,13 @@
         <v>1465767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,7 +4135,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4138,7 +4153,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4153,7 +4168,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4168,7 +4183,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4198,13 @@
         <v>10100</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H21" s="7">
         <v>80</v>
@@ -4198,13 +4213,13 @@
         <v>83874</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M21" s="7">
         <v>89</v>
@@ -4213,13 +4228,13 @@
         <v>93974</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4249,13 @@
         <v>937639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>923</v>
@@ -4249,13 +4264,13 @@
         <v>968027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>1824</v>
@@ -4264,13 +4279,13 @@
         <v>1905666</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,7 +4359,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4359,7 +4374,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4374,7 +4389,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4404,13 @@
         <v>40788</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>278</v>
@@ -4404,13 +4419,13 @@
         <v>299684</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>314</v>
@@ -4422,10 +4437,10 @@
         <v>47</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4455,13 @@
         <v>3385991</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H26" s="7">
         <v>3018</v>
@@ -4455,28 +4470,28 @@
         <v>3255414</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M26" s="7">
         <v>6191</v>
       </c>
       <c r="N26" s="7">
-        <v>6641406</v>
+        <v>6641405</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,7 +4533,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4553,7 +4568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B025CC4-6E72-4E64-8028-1B468F32DB5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B83FA8-06C4-4A57-A4CA-0DEE09861AC9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4570,7 +4585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4683,7 +4698,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4698,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4713,7 +4728,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4743,13 @@
         <v>3281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4743,13 +4758,13 @@
         <v>4002</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4758,13 +4773,13 @@
         <v>7283</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>255</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4794,13 @@
         <v>113265</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -4794,13 +4809,13 @@
         <v>109358</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
         <v>221</v>
@@ -4809,13 +4824,13 @@
         <v>222623</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>52</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,7 +4904,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4904,7 +4919,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4919,7 +4934,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4949,13 @@
         <v>6315</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -4949,13 +4964,13 @@
         <v>26631</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -4964,13 +4979,13 @@
         <v>32946</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,7 +5006,7 @@
         <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>527</v>
@@ -5000,13 +5015,13 @@
         <v>532848</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>1060</v>
@@ -5015,13 +5030,13 @@
         <v>1084787</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,7 +5092,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5125,7 +5140,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5155,13 @@
         <v>8945</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -5155,13 +5170,13 @@
         <v>77217</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -5170,13 +5185,13 @@
         <v>86162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5206,13 @@
         <v>1013486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>913</v>
@@ -5206,13 +5221,13 @@
         <v>965696</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>1855</v>
@@ -5221,13 +5236,13 @@
         <v>1979182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,7 +5298,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5301,7 +5316,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5316,7 +5331,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5331,7 +5346,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5361,13 @@
         <v>11422</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -5361,13 +5376,13 @@
         <v>33801</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -5376,13 +5391,13 @@
         <v>45223</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5412,13 @@
         <v>748130</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H18" s="7">
         <v>706</v>
@@ -5412,13 +5427,13 @@
         <v>751210</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M18" s="7">
         <v>1390</v>
@@ -5489,7 +5504,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5507,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5537,7 +5552,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,10 +5600,10 @@
         <v>319</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5618,13 @@
         <v>915189</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>894</v>
@@ -5618,13 +5633,13 @@
         <v>967172</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>1806</v>
@@ -5633,13 +5648,13 @@
         <v>1882361</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,7 +5728,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5728,7 +5743,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5743,7 +5758,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5773,13 @@
         <v>52341</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>187</v>
@@ -5773,13 +5788,13 @@
         <v>218258</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M25" s="7">
         <v>237</v>
@@ -5788,13 +5803,13 @@
         <v>270599</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5824,13 @@
         <v>3342009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H26" s="7">
         <v>3151</v>
@@ -5824,13 +5839,13 @@
         <v>3326284</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M26" s="7">
         <v>6332</v>
@@ -5839,13 +5854,13 @@
         <v>6668293</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,7 +5937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657C36B0-90DF-4186-9FAE-1755B4FEF866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376AD32-5503-49F8-ACC1-5B793BE5B4D5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5939,7 +5954,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6052,7 +6067,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6067,7 +6082,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6082,7 +6097,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6112,13 @@
         <v>1390</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -6112,13 +6127,13 @@
         <v>15957</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -6127,13 +6142,13 @@
         <v>17347</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6163,13 @@
         <v>100592</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>52</v>
+        <v>355</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>356</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H6" s="7">
         <v>213</v>
@@ -6267,13 +6282,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6282,13 +6297,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6318,13 @@
         <v>24478</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>131</v>
+        <v>371</v>
       </c>
       <c r="H9" s="7">
         <v>140</v>
@@ -6318,13 +6333,13 @@
         <v>68946</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M9" s="7">
         <v>171</v>
@@ -6333,13 +6348,13 @@
         <v>93424</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6369,13 @@
         <v>525345</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>855</v>
@@ -6369,13 +6384,13 @@
         <v>523609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>1436</v>
@@ -6384,13 +6399,13 @@
         <v>1048954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,7 +6461,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6473,13 +6488,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6488,13 +6503,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6524,13 @@
         <v>29342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>304</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -6524,13 +6539,13 @@
         <v>113588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>233</v>
@@ -6539,13 +6554,13 @@
         <v>142930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,13 +6575,13 @@
         <v>1009906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>1320</v>
@@ -6575,13 +6590,13 @@
         <v>944408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M14" s="7">
         <v>2245</v>
@@ -6590,13 +6605,13 @@
         <v>1954315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,7 +6667,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6670,7 +6685,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6685,7 +6700,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6700,7 +6715,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6730,13 @@
         <v>31768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -6730,13 +6745,13 @@
         <v>86090</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -6745,13 +6760,13 @@
         <v>117859</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6781,13 @@
         <v>695156</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>414</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H18" s="7">
         <v>910</v>
@@ -6781,13 +6796,13 @@
         <v>788122</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M18" s="7">
         <v>1547</v>
@@ -6796,13 +6811,13 @@
         <v>1483276</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>171</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,7 +6873,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6876,7 +6891,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6885,13 +6900,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6900,13 +6915,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,13 +6936,13 @@
         <v>42588</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>289</v>
+        <v>425</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>420</v>
+        <v>163</v>
       </c>
       <c r="H21" s="7">
         <v>181</v>
@@ -6936,13 +6951,13 @@
         <v>115939</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M21" s="7">
         <v>231</v>
@@ -6951,13 +6966,13 @@
         <v>158526</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,13 +6987,13 @@
         <v>922815</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>428</v>
+        <v>172</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>298</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7">
         <v>1379</v>
@@ -6987,13 +7002,13 @@
         <v>1031005</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>2335</v>
@@ -7002,13 +7017,13 @@
         <v>1953820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7082,7 +7097,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7094,10 +7109,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7106,13 +7121,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>333</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,13 +7142,13 @@
         <v>129566</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>681</v>
@@ -7142,13 +7157,13 @@
         <v>400520</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>840</v>
@@ -7160,10 +7175,10 @@
         <v>316</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7178,13 +7193,13 @@
         <v>3253814</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>4677</v>
@@ -7193,13 +7208,13 @@
         <v>3401919</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>7892</v>
@@ -7208,13 +7223,13 @@
         <v>6655733</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1419-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A1FEBE8-A90D-4229-867C-3A459BE60934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F256DC99-C1CF-43CF-82B9-346F14071A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03949DC2-DB9B-40FA-907E-5E43CF77EF59}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B616F868-900A-4E7B-9B51-8BC07AC2813E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
   <si>
     <t>Población con diagnóstico de varices en las piernas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1234 +68,1033 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1506,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62D2CC4-9B4D-4C90-BFDF-222611FD0E0F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCBA1FD-A709-4EFE-85A5-87D5C85F1F43}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1825,10 +1624,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>4348</v>
+        <v>18674</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1840,10 +1639,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I4" s="7">
-        <v>12220</v>
+        <v>54171</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1855,10 +1654,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="N4" s="7">
-        <v>16568</v>
+        <v>72846</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1876,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>101</v>
+        <v>665</v>
       </c>
       <c r="D5" s="7">
-        <v>111010</v>
+        <v>675338</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1891,10 +1690,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>114</v>
+        <v>641</v>
       </c>
       <c r="I5" s="7">
-        <v>100535</v>
+        <v>634180</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1906,10 +1705,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>215</v>
+        <v>1306</v>
       </c>
       <c r="N5" s="7">
-        <v>211545</v>
+        <v>1309517</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1927,10 +1726,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1942,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1957,10 +1756,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1980,10 +1779,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>14327</v>
+        <v>27735</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1995,10 +1794,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="I7" s="7">
-        <v>41951</v>
+        <v>105333</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2010,10 +1809,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="N7" s="7">
-        <v>56278</v>
+        <v>133068</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2031,10 +1830,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>564</v>
+        <v>871</v>
       </c>
       <c r="D8" s="7">
-        <v>564327</v>
+        <v>934065</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2046,10 +1845,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>527</v>
+        <v>812</v>
       </c>
       <c r="I8" s="7">
-        <v>533645</v>
+        <v>863060</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2061,10 +1860,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1091</v>
+        <v>1683</v>
       </c>
       <c r="N8" s="7">
-        <v>1097972</v>
+        <v>1797125</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2082,10 +1881,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2097,10 +1896,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2112,10 +1911,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2135,10 +1934,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>27735</v>
+        <v>22191</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2150,10 +1949,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I10" s="7">
-        <v>105333</v>
+        <v>78610</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2165,10 +1964,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="N10" s="7">
-        <v>133068</v>
+        <v>100801</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2186,10 +1985,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>871</v>
+        <v>621</v>
       </c>
       <c r="D11" s="7">
-        <v>934065</v>
+        <v>656318</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2201,10 +2000,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>812</v>
+        <v>614</v>
       </c>
       <c r="I11" s="7">
-        <v>863060</v>
+        <v>605231</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2216,10 +2015,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1683</v>
+        <v>1235</v>
       </c>
       <c r="N11" s="7">
-        <v>1797125</v>
+        <v>1261549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2237,10 +2036,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2252,10 +2051,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2267,10 +2066,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2290,10 +2089,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>22191</v>
+        <v>30478</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2305,10 +2104,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="I13" s="7">
-        <v>78610</v>
+        <v>126223</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2320,10 +2119,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="N13" s="7">
-        <v>100801</v>
+        <v>156701</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2341,10 +2140,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>621</v>
+        <v>960</v>
       </c>
       <c r="D14" s="7">
-        <v>656318</v>
+        <v>911744</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2356,10 +2155,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>614</v>
+        <v>876</v>
       </c>
       <c r="I14" s="7">
-        <v>605231</v>
+        <v>912389</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2371,10 +2170,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1235</v>
+        <v>1836</v>
       </c>
       <c r="N14" s="7">
-        <v>1261549</v>
+        <v>1824133</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2392,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2407,10 +2206,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2422,10 +2221,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2439,55 +2238,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7">
-        <v>30478</v>
+        <v>99079</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>354</v>
+      </c>
+      <c r="I16" s="7">
+        <v>364338</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>121</v>
-      </c>
-      <c r="I16" s="7">
-        <v>126223</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>451</v>
+      </c>
+      <c r="N16" s="7">
+        <v>463416</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>155</v>
-      </c>
-      <c r="N16" s="7">
-        <v>156701</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,49 +2295,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>960</v>
+        <v>3117</v>
       </c>
       <c r="D17" s="7">
-        <v>911744</v>
+        <v>3177464</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2943</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3014859</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>876</v>
-      </c>
-      <c r="I17" s="7">
-        <v>912389</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6060</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6192325</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1836</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1824133</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,10 +2346,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2562,10 +2361,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2577,10 +2376,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2593,171 +2392,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>97</v>
-      </c>
-      <c r="D19" s="7">
-        <v>99079</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>354</v>
-      </c>
-      <c r="I19" s="7">
-        <v>364338</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>451</v>
-      </c>
-      <c r="N19" s="7">
-        <v>463416</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3117</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3177465</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2943</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3014860</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6060</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6192324</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2770,8 +2413,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F07F14-D7B5-45C1-BE4D-EFDCBB6DB27A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CCBB99-20FC-40B3-89EB-8C2BA5B87208}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2787,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2888,49 +2531,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>857</v>
+        <v>11509</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I4" s="7">
-        <v>15680</v>
+        <v>61088</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="N4" s="7">
-        <v>16537</v>
+        <v>72597</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,49 +2582,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>664</v>
+      </c>
+      <c r="D5" s="7">
+        <v>691960</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="7">
+        <v>594</v>
+      </c>
+      <c r="I5" s="7">
+        <v>635962</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="7">
-        <v>114908</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="7">
-        <v>85</v>
-      </c>
-      <c r="I5" s="7">
-        <v>96225</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="M5" s="7">
-        <v>206</v>
+        <v>1258</v>
       </c>
       <c r="N5" s="7">
-        <v>211133</v>
+        <v>1327922</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3005,10 +2648,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3020,10 +2663,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3043,49 +2686,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>10652</v>
+        <v>11115</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="I7" s="7">
-        <v>45408</v>
+        <v>93756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="N7" s="7">
-        <v>56060</v>
+        <v>104871</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,49 +2737,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>543</v>
+        <v>926</v>
       </c>
       <c r="D8" s="7">
-        <v>577052</v>
+        <v>1006832</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>509</v>
+        <v>852</v>
       </c>
       <c r="I8" s="7">
-        <v>539737</v>
+        <v>935217</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>1052</v>
+        <v>1778</v>
       </c>
       <c r="N8" s="7">
-        <v>1116789</v>
+        <v>1942050</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,10 +2788,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3160,10 +2803,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3175,10 +2818,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3198,49 +2841,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>11115</v>
+        <v>8064</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>93756</v>
+        <v>60967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="N10" s="7">
-        <v>104871</v>
+        <v>69030</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,49 +2892,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>926</v>
+        <v>682</v>
       </c>
       <c r="D11" s="7">
-        <v>1006832</v>
+        <v>749559</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>852</v>
+        <v>649</v>
       </c>
       <c r="I11" s="7">
-        <v>935217</v>
+        <v>716207</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>1778</v>
+        <v>1331</v>
       </c>
       <c r="N11" s="7">
-        <v>1942049</v>
+        <v>1465767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3315,10 +2958,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3330,10 +2973,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3353,49 +2996,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>8064</v>
+        <v>10100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7">
-        <v>60967</v>
+        <v>83874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7">
-        <v>69030</v>
+        <v>93974</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,49 +3047,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>682</v>
+        <v>901</v>
       </c>
       <c r="D14" s="7">
-        <v>749559</v>
+        <v>937639</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>649</v>
+        <v>923</v>
       </c>
       <c r="I14" s="7">
-        <v>716207</v>
+        <v>968027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>1331</v>
+        <v>1824</v>
       </c>
       <c r="N14" s="7">
-        <v>1465767</v>
+        <v>1905666</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,10 +3098,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3470,10 +3113,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3485,10 +3128,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3502,55 +3145,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>10100</v>
+        <v>40788</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="I16" s="7">
-        <v>83874</v>
+        <v>299684</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>89</v>
+        <v>314</v>
       </c>
       <c r="N16" s="7">
-        <v>93974</v>
+        <v>340472</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,49 +3202,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>901</v>
+        <v>3173</v>
       </c>
       <c r="D17" s="7">
-        <v>937639</v>
+        <v>3385991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>923</v>
+        <v>3018</v>
       </c>
       <c r="I17" s="7">
-        <v>968027</v>
+        <v>3255414</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>1824</v>
+        <v>6191</v>
       </c>
       <c r="N17" s="7">
-        <v>1905666</v>
+        <v>6641405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,10 +3253,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3625,10 +3268,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3640,10 +3283,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3656,171 +3299,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7">
-        <v>40788</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>278</v>
-      </c>
-      <c r="I19" s="7">
-        <v>299684</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>314</v>
-      </c>
-      <c r="N19" s="7">
-        <v>340472</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3173</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3385991</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3018</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3255414</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6191</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6641405</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3833,8 +3320,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2F6979-2BF2-4B09-980B-71E8090CA347}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AA5450-3FFE-40EB-A080-F9810DE81420}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3850,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3951,49 +3438,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>3281</v>
+        <v>9596</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>4002</v>
+        <v>30632</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>7283</v>
+        <v>40228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,49 +3489,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>110</v>
+        <v>643</v>
       </c>
       <c r="D5" s="7">
-        <v>113265</v>
+        <v>665204</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>111</v>
+        <v>638</v>
       </c>
       <c r="I5" s="7">
-        <v>109358</v>
+        <v>642207</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>221</v>
+        <v>1281</v>
       </c>
       <c r="N5" s="7">
-        <v>222623</v>
+        <v>1307411</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,10 +3540,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4068,10 +3555,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4083,10 +3570,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4106,49 +3593,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>6315</v>
+        <v>8945</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I7" s="7">
-        <v>26631</v>
+        <v>77217</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N7" s="7">
-        <v>32946</v>
+        <v>86162</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,49 +3644,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>533</v>
+        <v>942</v>
       </c>
       <c r="D8" s="7">
-        <v>551939</v>
+        <v>1013486</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>527</v>
+        <v>913</v>
       </c>
       <c r="I8" s="7">
-        <v>532848</v>
+        <v>965696</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>1060</v>
+        <v>1855</v>
       </c>
       <c r="N8" s="7">
-        <v>1084787</v>
+        <v>1979182</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,10 +3695,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4223,10 +3710,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4238,10 +3725,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4261,49 +3748,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>8945</v>
+        <v>11422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>77217</v>
+        <v>33801</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>86162</v>
+        <v>45223</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,49 +3799,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>942</v>
+        <v>684</v>
       </c>
       <c r="D11" s="7">
-        <v>1013486</v>
+        <v>748130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
-        <v>913</v>
+        <v>706</v>
       </c>
       <c r="I11" s="7">
-        <v>965696</v>
+        <v>751210</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>1855</v>
+        <v>1390</v>
       </c>
       <c r="N11" s="7">
-        <v>1979182</v>
+        <v>1499340</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,10 +3850,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4378,10 +3865,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4393,10 +3880,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4416,49 +3903,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>11422</v>
+        <v>22378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H13" s="7">
+        <v>65</v>
+      </c>
+      <c r="I13" s="7">
+        <v>76607</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H13" s="7">
-        <v>30</v>
-      </c>
-      <c r="I13" s="7">
-        <v>33801</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="N13" s="7">
-        <v>45223</v>
+        <v>98985</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,49 +3954,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>684</v>
+        <v>912</v>
       </c>
       <c r="D14" s="7">
-        <v>748130</v>
+        <v>915189</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" s="7">
+        <v>894</v>
+      </c>
+      <c r="I14" s="7">
+        <v>967172</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H14" s="7">
-        <v>706</v>
-      </c>
-      <c r="I14" s="7">
-        <v>751210</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="M14" s="7">
-        <v>1390</v>
+        <v>1806</v>
       </c>
       <c r="N14" s="7">
-        <v>1499340</v>
+        <v>1882361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,10 +4005,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4533,10 +4020,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4548,10 +4035,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4565,55 +4052,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>22378</v>
+        <v>52341</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="I16" s="7">
-        <v>76607</v>
+        <v>218258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M16" s="7">
+        <v>237</v>
+      </c>
+      <c r="N16" s="7">
+        <v>270599</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M16" s="7">
-        <v>85</v>
-      </c>
-      <c r="N16" s="7">
-        <v>98985</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,49 +4109,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>912</v>
+        <v>3181</v>
       </c>
       <c r="D17" s="7">
-        <v>915189</v>
+        <v>3342009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
-        <v>894</v>
+        <v>3151</v>
       </c>
       <c r="I17" s="7">
-        <v>967172</v>
+        <v>3326284</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6332</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6668293</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1806</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1882361</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,10 +4160,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4688,10 +4175,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4703,10 +4190,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4719,171 +4206,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>50</v>
-      </c>
-      <c r="D19" s="7">
-        <v>52341</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H19" s="7">
-        <v>187</v>
-      </c>
-      <c r="I19" s="7">
-        <v>218258</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M19" s="7">
-        <v>237</v>
-      </c>
-      <c r="N19" s="7">
-        <v>270599</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3181</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3342009</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3151</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3326284</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6332</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6668293</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4896,8 +4227,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC16BA3-7002-44D6-B429-B9AD2C550A25}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A98A049-AE19-4045-B3BE-0F0CAE423905}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4913,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5014,49 +4345,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>1390</v>
+        <v>24473</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="I4" s="7">
-        <v>15957</v>
+        <v>79518</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="N4" s="7">
-        <v>17347</v>
+        <v>103991</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,49 +4396,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>697</v>
       </c>
       <c r="D5" s="7">
-        <v>100592</v>
+        <v>610968</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7">
-        <v>213</v>
+        <v>1068</v>
       </c>
       <c r="I5" s="7">
-        <v>114776</v>
+        <v>595852</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="M5" s="7">
-        <v>329</v>
+        <v>1765</v>
       </c>
       <c r="N5" s="7">
-        <v>215368</v>
+        <v>1206820</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,10 +4447,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5131,10 +4462,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5146,10 +4477,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5169,49 +4500,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>24478</v>
+        <v>27534</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I7" s="7">
-        <v>68946</v>
+        <v>103913</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="N7" s="7">
-        <v>93424</v>
+        <v>131447</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,49 +4551,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>581</v>
+        <v>925</v>
       </c>
       <c r="D8" s="7">
-        <v>525345</v>
+        <v>1165330</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
-        <v>855</v>
+        <v>1320</v>
       </c>
       <c r="I8" s="7">
-        <v>523609</v>
+        <v>852801</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
-        <v>1436</v>
+        <v>2245</v>
       </c>
       <c r="N8" s="7">
-        <v>1048954</v>
+        <v>2018131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,10 +4602,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5286,10 +4617,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>956714</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5301,10 +4632,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2149578</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5324,49 +4655,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>29342</v>
+        <v>30118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="I10" s="7">
-        <v>113589</v>
+        <v>79102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="N10" s="7">
-        <v>142930</v>
+        <v>109220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,49 +4706,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>925</v>
+        <v>637</v>
       </c>
       <c r="D11" s="7">
-        <v>1009906</v>
+        <v>672847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
-        <v>1320</v>
+        <v>910</v>
       </c>
       <c r="I11" s="7">
-        <v>944408</v>
+        <v>854104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
-        <v>2245</v>
+        <v>1547</v>
       </c>
       <c r="N11" s="7">
-        <v>1954315</v>
+        <v>1526951</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>702965</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5441,10 +4772,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1057997</v>
+        <v>933206</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5456,10 +4787,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2097245</v>
+        <v>1636171</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5479,49 +4810,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>31768</v>
+        <v>39748</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="I13" s="7">
-        <v>86090</v>
+        <v>103843</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="N13" s="7">
-        <v>117859</v>
+        <v>143591</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,49 +4861,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>637</v>
+        <v>956</v>
       </c>
       <c r="D14" s="7">
-        <v>695156</v>
+        <v>887083</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
-        <v>910</v>
+        <v>1379</v>
       </c>
       <c r="I14" s="7">
-        <v>788122</v>
+        <v>988071</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
-        <v>1547</v>
+        <v>2335</v>
       </c>
       <c r="N14" s="7">
-        <v>1483276</v>
+        <v>1875154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>726924</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5596,10 +4927,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>874212</v>
+        <v>1091914</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5611,10 +4942,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2566</v>
       </c>
       <c r="N15" s="7">
-        <v>1601135</v>
+        <v>2018745</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5628,55 +4959,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="D16" s="7">
-        <v>42588</v>
+        <v>121874</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="H16" s="7">
-        <v>181</v>
+        <v>681</v>
       </c>
       <c r="I16" s="7">
-        <v>115939</v>
+        <v>366375</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
-        <v>231</v>
+        <v>840</v>
       </c>
       <c r="N16" s="7">
-        <v>158526</v>
+        <v>488249</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,49 +5016,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>956</v>
+        <v>3215</v>
       </c>
       <c r="D17" s="7">
-        <v>922815</v>
+        <v>3336227</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
-        <v>1379</v>
+        <v>4677</v>
       </c>
       <c r="I17" s="7">
-        <v>1031005</v>
+        <v>3290829</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
-        <v>2335</v>
+        <v>7892</v>
       </c>
       <c r="N17" s="7">
-        <v>1953821</v>
+        <v>6627057</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,10 +5067,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458101</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5751,10 +5082,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5358</v>
       </c>
       <c r="I18" s="7">
-        <v>1146944</v>
+        <v>3657204</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5766,10 +5097,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2566</v>
+        <v>8732</v>
       </c>
       <c r="N18" s="7">
-        <v>2112347</v>
+        <v>7115306</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5782,171 +5113,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>159</v>
-      </c>
-      <c r="D19" s="7">
-        <v>129566</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="7">
-        <v>681</v>
-      </c>
-      <c r="I19" s="7">
-        <v>400520</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="M19" s="7">
-        <v>840</v>
-      </c>
-      <c r="N19" s="7">
-        <v>530086</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3215</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3253814</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4677</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3401920</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7892</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6655734</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383380</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5358</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802440</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8732</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7185820</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
